--- a/Datasets/CIS.xlsx
+++ b/Datasets/CIS.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salun\OneDrive\Desktop\Study\Sem IV\DIS\Project\Datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salun\OneDrive\Desktop\Study\Sem IV\DIS\review\CourseReview\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145DC35A-3EA8-4F59-82CF-2737EC9A23F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA295E85-3BDC-4426-9B7C-8671D11E8B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{60EA4D0A-D21E-4C4A-93C5-CC6F50FD2889}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="105">
   <si>
     <t>CRN</t>
   </si>
@@ -50,12 +51,6 @@
     <t>Instructor</t>
   </si>
   <si>
-    <t>Campus</t>
-  </si>
-  <si>
-    <t>Tampa</t>
-  </si>
-  <si>
     <t>Information Technology Systems Security</t>
   </si>
   <si>
@@ -140,9 +135,6 @@
     <t>M. Pazos Revilla (P)</t>
   </si>
   <si>
-    <t xml:space="preserve">Tampa </t>
-  </si>
-  <si>
     <t>Human Aspects of Cybersecurity</t>
   </si>
   <si>
@@ -206,14 +198,167 @@
     <t>S. Small (P)</t>
   </si>
   <si>
-    <t>Off-campus Tampa</t>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>CIS</t>
+  </si>
+  <si>
+    <t>hyi@usf.edu</t>
+  </si>
+  <si>
+    <t>jscott@usf.edu</t>
+  </si>
+  <si>
+    <t>swalczak@usf.edu</t>
+  </si>
+  <si>
+    <t>dmorgan@usf.edu</t>
+  </si>
+  <si>
+    <t>pmooney@usf.edu</t>
+  </si>
+  <si>
+    <t>sfang@usf.edu</t>
+  </si>
+  <si>
+    <t>pventura@usf.edu</t>
+  </si>
+  <si>
+    <t>hjeanty@usf.edu</t>
+  </si>
+  <si>
+    <t>dalfenas@usf.edu</t>
+  </si>
+  <si>
+    <t>omurray-bruce@usf.edu</t>
+  </si>
+  <si>
+    <t>jtempleton@usf.edu</t>
+  </si>
+  <si>
+    <t>yren@usf.edu</t>
+  </si>
+  <si>
+    <t>wgauvin@usf.edu</t>
+  </si>
+  <si>
+    <t>mpazos@usf.edu</t>
+  </si>
+  <si>
+    <t>yzhang@usf.edu</t>
+  </si>
+  <si>
+    <t>skatkoori@usf.edu</t>
+  </si>
+  <si>
+    <t>mandujar@usf.edu</t>
+  </si>
+  <si>
+    <t>ayavuz@usf.edu</t>
+  </si>
+  <si>
+    <t>amali@usf.edu</t>
+  </si>
+  <si>
+    <t>lhall@usf.edu</t>
+  </si>
+  <si>
+    <t>rkaram@usf.edu</t>
+  </si>
+  <si>
+    <t>zhan@usf.edu</t>
+  </si>
+  <si>
+    <t>ysun@usf.edu</t>
+  </si>
+  <si>
+    <t>ssmall@usf.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department </t>
+  </si>
+  <si>
+    <t>Instructor_ID</t>
+  </si>
+  <si>
+    <t>CIS_01</t>
+  </si>
+  <si>
+    <t>CIS_02</t>
+  </si>
+  <si>
+    <t>CIS_03</t>
+  </si>
+  <si>
+    <t>CIS_04</t>
+  </si>
+  <si>
+    <t>CIS_05</t>
+  </si>
+  <si>
+    <t>CIS_06</t>
+  </si>
+  <si>
+    <t>CIS_07</t>
+  </si>
+  <si>
+    <t>CIS_08</t>
+  </si>
+  <si>
+    <t>CIS_09</t>
+  </si>
+  <si>
+    <t>CIS_10</t>
+  </si>
+  <si>
+    <t>CIS_11</t>
+  </si>
+  <si>
+    <t>CIS_12</t>
+  </si>
+  <si>
+    <t>CIS_13</t>
+  </si>
+  <si>
+    <t>CIS_14</t>
+  </si>
+  <si>
+    <t>CIS_15</t>
+  </si>
+  <si>
+    <t>CIS_16</t>
+  </si>
+  <si>
+    <t>CIS_17</t>
+  </si>
+  <si>
+    <t>CIS_18</t>
+  </si>
+  <si>
+    <t>CIS_19</t>
+  </si>
+  <si>
+    <t>CIS_20</t>
+  </si>
+  <si>
+    <t>CIS_21</t>
+  </si>
+  <si>
+    <t>CIS_22</t>
+  </si>
+  <si>
+    <t>CIS_23</t>
+  </si>
+  <si>
+    <t>CIS_24</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,6 +379,12 @@
       <color rgb="FF000000"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -277,7 +428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -288,6 +439,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -625,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F04670D3-A05F-4113-9105-D1465259F0F9}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -648,11 +803,9 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -662,13 +815,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -679,13 +829,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -696,13 +843,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -713,13 +857,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -730,13 +871,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -747,13 +885,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -764,13 +899,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -781,13 +913,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>5</v>
+        <v>16</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -798,13 +927,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s">
-        <v>5</v>
+        <v>18</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -815,13 +941,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" t="s">
-        <v>5</v>
+        <v>19</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -832,13 +955,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" t="s">
-        <v>5</v>
+        <v>20</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -849,13 +969,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" t="s">
-        <v>5</v>
+        <v>21</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -866,13 +983,10 @@
         <v>3</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" t="s">
-        <v>5</v>
+        <v>22</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -883,13 +997,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" t="s">
-        <v>5</v>
+        <v>23</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -900,13 +1011,10 @@
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" t="s">
-        <v>5</v>
+        <v>28</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -917,13 +1025,10 @@
         <v>3</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -934,14 +1039,12 @@
         <v>3</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>5</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
@@ -951,82 +1054,72 @@
         <v>3</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>5</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>89522</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>5</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>89175</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>5</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>89468</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>5</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>89506</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>5</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
@@ -1036,14 +1129,12 @@
         <v>1</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>5</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
@@ -1053,14 +1144,12 @@
         <v>3</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>5</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
@@ -1070,14 +1159,12 @@
         <v>3</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>5</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
@@ -1087,14 +1174,12 @@
         <v>3</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>5</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
@@ -1104,14 +1189,12 @@
         <v>3</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>5</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
@@ -1121,14 +1204,12 @@
         <v>1</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>5</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
@@ -1138,16 +1219,14 @@
         <v>1</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>89197</v>
       </c>
@@ -1155,16 +1234,386 @@
         <v>1</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>56</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F865DE04-61E0-457C-8240-8F2892570193}">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="5"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>